--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3554311.137298346</v>
+        <v>3629840.80696315</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>335.9477276065807</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>126.9105741582249</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.466470981599</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>128.5106545542415</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>286.7807376001118</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>88.25490562468546</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>43.93108672887464</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>17.93026930120607</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>160.546234966887</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.144861365174841</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.0537032279749</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.078595249799</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>74.40283328139938</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>34.2275934899485</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>220.2803460863043</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>93.05049228033214</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051976</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>209.4552226741775</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>26.97444673954966</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>48.37466424891429</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>170.8015732715673</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>108.8137654404057</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>218.5843930538365</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>81.93972293019165</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>13.6001478667752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>21.82407384967424</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>104.7919727697734</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>114.9309043193596</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>213.1553440493622</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>52.2786166391846</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1520.223993023726</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>1151.261476083314</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>792.9957774765639</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>407.2075248783197</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y2" t="n">
-        <v>1520.223993023726</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>538.7689125078493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2512.311659574734</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2512.311659574734</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U5" t="n">
-        <v>2512.311659574734</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2181.248772231163</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>2181.248772231163</v>
+        <v>1935.075125900991</v>
       </c>
       <c r="X5" t="n">
-        <v>2181.248772231163</v>
+        <v>1561.609367639912</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.109440255352</v>
+        <v>1561.609367639912</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.7458755710942</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="C7" t="n">
-        <v>188.7458755710942</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D7" t="n">
-        <v>188.7458755710942</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E7" t="n">
-        <v>188.7458755710942</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F7" t="n">
-        <v>188.7458755710942</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>188.7458755710942</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>188.7458755710942</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>654.3372299803849</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>654.3372299803849</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146243</v>
+        <v>654.3372299803849</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146243</v>
+        <v>654.3372299803849</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146243</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.7458755710942</v>
+        <v>426.3476790823676</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1001.74984766637</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>643.4841490596193</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>643.4841490596193</v>
       </c>
       <c r="F8" t="n">
         <v>625.3727659270879</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.746763379062</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>209.0731070847524</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16001350235925</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,19 +5026,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5045,7 +5047,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,19 +5059,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>638.8778922268336</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>638.8778922268336</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>638.8778922268336</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>490.9647986444405</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570734</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1433.546326320614</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2103.010087623273</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5391,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,13 +5445,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5494,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320614</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5628,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>595.52964222602</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>426.5934592981131</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>426.5934592981131</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.68036571572</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>131.7904182178096</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,13 +5682,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>741.6303417376097</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V19" t="n">
-        <v>486.9458535317228</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W19" t="n">
-        <v>486.9458535317228</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317228</v>
+        <v>816.3222213695501</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>595.52964222602</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,40 +5746,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F21" t="n">
         <v>358.2718071316295</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923177</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>4094.296631519492</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>3925.360448591585</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>4409.079606905781</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>4188.287027762251</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5975,22 +5977,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,7 +6013,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6102,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6156,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3486.402309815211</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3486.402309815211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4660.934562929845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4406.250074723958</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W28" t="n">
-        <v>4116.832904686998</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X28" t="n">
-        <v>3888.84335378898</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y28" t="n">
-        <v>3668.05077464545</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6488,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6543,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6649,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>902.6840035745087</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>902.6840035745087</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6886,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>1009.867621687013</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>720.4504516500522</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6934,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,13 +6961,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>972.2646934632137</v>
+        <v>674.9567375132467</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>674.9567375132467</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>524.840098100911</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1416.148873658719</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1416.148873658719</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1192.363458448225</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1192.363458448225</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>1192.363458448225</v>
       </c>
       <c r="W37" t="n">
-        <v>972.2646934632137</v>
+        <v>902.946288411264</v>
       </c>
       <c r="X37" t="n">
-        <v>972.2646934632137</v>
+        <v>674.9567375132467</v>
       </c>
       <c r="Y37" t="n">
-        <v>972.2646934632137</v>
+        <v>674.9567375132467</v>
       </c>
     </row>
     <row r="38">
@@ -7157,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.5496456007323</v>
+        <v>527.8027887886594</v>
       </c>
       <c r="C40" t="n">
-        <v>710.6134626728254</v>
+        <v>527.8027887886594</v>
       </c>
       <c r="D40" t="n">
-        <v>710.6134626728254</v>
+        <v>377.6861493763237</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1281.990689574502</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1281.990689574502</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1281.990689574502</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V40" t="n">
-        <v>1281.990689574502</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W40" t="n">
-        <v>1281.990689574502</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X40" t="n">
-        <v>1281.990689574502</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y40" t="n">
-        <v>1061.198110430972</v>
+        <v>709.4512536188992</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4633.68764703131</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>4633.68764703131</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>4633.68764703131</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V43" t="n">
-        <v>4379.003158825423</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W43" t="n">
-        <v>4089.585988788463</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X43" t="n">
-        <v>3861.596437890445</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="Y43" t="n">
-        <v>3640.803858746915</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>857.5427825698953</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>3924.031316633044</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>3773.914677220709</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>3773.914677220709</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>4092.967499560951</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>414.5002179180852</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119858</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7151863772044</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139969</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711665</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>295.377351057128</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>308.1251096272042</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,16 +9956,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>52.4973336130526</v>
+        <v>403.7628319612151</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>403.7628319612152</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>71.01821474153186</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>132.2659749734291</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>65.95700631227302</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>86.78148790160516</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>9.12943067791727</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5191217238279</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>203.7629790749137</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>81.33607005226074</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>58.43305565822217</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>7.125262335200631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>28.02462947360114</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>272.9228504698158</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>124.6098887968949</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>93.12883721382985</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.98990566424368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>5.429309302732634</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>93.14243138374664</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504003</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504003</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504003</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504003</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778548</v>
@@ -26320,40 +26322,40 @@
         <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278752</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.3075278755</v>
+      </c>
+      <c r="G2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.307527876</v>
-      </c>
       <c r="H2" t="n">
-        <v>703852.3075278762</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.3075278761</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="N2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="O2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="K2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="N2" t="n">
-        <v>703852.307527876</v>
-      </c>
-      <c r="O2" t="n">
-        <v>703852.3075278759</v>
-      </c>
       <c r="P2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,31 +26429,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26470,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662347</v>
+        <v>-99522.23218662359</v>
       </c>
       <c r="C6" t="n">
         <v>490445.647027921</v>
@@ -26528,40 +26530,40 @@
         <v>490445.6470279208</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539246</v>
+        <v>64530.33751539205</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922887</v>
+        <v>589690.3739922881</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922887</v>
+        <v>589690.3739922885</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.373992289</v>
+        <v>589690.3739922886</v>
       </c>
       <c r="I6" t="n">
         <v>589690.3739922885</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996955</v>
+        <v>413267.1547996957</v>
       </c>
       <c r="K6" t="n">
+        <v>589690.3739922888</v>
+      </c>
+      <c r="L6" t="n">
         <v>589690.3739922886</v>
       </c>
-      <c r="L6" t="n">
-        <v>589690.3739922887</v>
-      </c>
       <c r="M6" t="n">
-        <v>454889.3587584515</v>
+        <v>454889.3587584514</v>
       </c>
       <c r="N6" t="n">
-        <v>589690.3739922887</v>
+        <v>589690.3739922886</v>
       </c>
       <c r="O6" t="n">
-        <v>589690.3739922886</v>
+        <v>589690.3739922885</v>
       </c>
       <c r="P6" t="n">
-        <v>589690.3739922886</v>
+        <v>589690.3739922888</v>
       </c>
     </row>
   </sheetData>
@@ -26738,43 +26740,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>70.92831813513078</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>124.3135933500644</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>98.81540326037873</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>45.90505825472999</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>62.46023111730125</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>46.71071616765276</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>181.1040187292096</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>388.9457764405054</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>225.6917036891666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>127.8207604271634</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.53095012411993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>747.694791316098</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>437.808601308729</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>588.4784392551049</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131522</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>515.2185245587287</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>385.6919070110654</v>
+        <v>736.957405359228</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>714.1872090116815</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3629840.80696315</v>
+        <v>3622823.79207144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>119.7641616298973</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>126.9105741582249</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.466470981599</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>328.412423009373</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>286.7807376001118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>43.93108672887464</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.1478855987998</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>17.93026930120607</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7.144861365174841</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>189.5968436493441</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249799</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>74.40283328139938</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.2275934899485</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.05049228033214</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.4552226741775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>48.37466424891429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>170.8015732715673</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>108.8137654404057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>81.93972293019165</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>21.82407384967424</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1553440493622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>52.2786166391846</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2119.115747685226</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2119.115747685226</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2119.115747685226</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>2119.115747685226</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.115747685226</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.7689125078493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>538.7689125078493</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>538.7689125078493</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>538.7689125078493</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>538.7689125078493</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>538.7689125078493</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.00952757579</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>785.3843586915057</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>399.5961060932614</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1935.075125900991</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1561.609367639912</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.609367639912</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4658,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.3476790823676</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>426.3476790823676</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3476790823676</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>654.3372299803849</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>654.3372299803849</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>654.3372299803849</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>654.3372299803849</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>426.3476790823676</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.3476790823676</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1370.712364606781</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.74984766637</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>643.4841490596193</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>643.4841490596193</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646715</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.451536646715</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.312204670903</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0731070847524</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>61.16001350235925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>61.16001350235925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>61.16001350235925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>61.16001350235925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.1897464970881</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5029,7 +5029,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701559</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766198</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656581</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>638.8778922268336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>638.8778922268336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>638.8778922268336</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>490.9647986444405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570734</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>820.5263570570734</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>820.5263570570734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.5263570570734</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5263,58 +5263,58 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320614</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.010087623273</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5393,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5445,13 +5445,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870655</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,43 +5503,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320614</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>595.52964222602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>426.5934592981131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>426.5934592981131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>278.68036571572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>131.7904182178096</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5682,13 +5682,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473454</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267567</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267567</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>816.3222213695501</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.52964222602</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,52 +5734,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
         <v>358.2718071316295</v>
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923177</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5867,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4094.296631519492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3925.360448591585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4637.069157803799</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>4637.069157803799</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4409.079606905781</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>4188.287027762251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6156,13 +6156,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324571</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>737.2189092553931</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>447.8017392184324</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>902.6840035745087</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6840035745087</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>820.5263570570736</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>710.6134626728254</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W34" t="n">
-        <v>820.5263570570736</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X34" t="n">
-        <v>820.5263570570736</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y34" t="n">
-        <v>820.5263570570736</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,52 +6934,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.9567375132467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>674.9567375132467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>524.840098100911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1416.148873658719</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1416.148873658719</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1192.363458448225</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1192.363458448225</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1192.363458448225</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>902.946288411264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>674.9567375132467</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.9567375132467</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.8027887886594</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>527.8027887886594</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>377.6861493763237</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>355.6416303362487</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>709.4512536188992</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>709.4512536188992</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>709.4512536188992</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>709.4512536188992</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536188992</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>481.4617027208818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4092.967499560951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3924.031316633044</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3773.914677220709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3773.914677220709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>4382.384669597912</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>4092.967499560951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4092.967499560951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4092.967499560951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>414.5002179180852</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119858</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>230.7151863772044</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>306.1147370139969</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711665</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>295.377351057128</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>308.1251096272042</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>403.7628319612151</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>41.75994765618367</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>403.7628319612152</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>71.01821474153186</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>48.00368395686573</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>132.2659749734291</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.78148790160516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.12943067791727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>203.7629790749137</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>81.33607005226074</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>58.43305565822217</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>187.7957356844441</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.02462947360114</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>124.6098887968949</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.429309302732634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>93.14243138374664</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686136.2154504</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686136.2154504003</v>
+        <v>686136.2154504001</v>
       </c>
     </row>
     <row r="14">
@@ -26319,22 +26319,22 @@
         <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
-        <v>703852.3075278752</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278755</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="J2" t="n">
         <v>703852.3075278761</v>
@@ -26343,7 +26343,7 @@
         <v>703852.3075278761</v>
       </c>
       <c r="L2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278761</v>
       </c>
       <c r="M2" t="n">
         <v>703852.3075278759</v>
@@ -26352,10 +26352,10 @@
         <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="P2" t="n">
         <v>703852.3075278758</v>
-      </c>
-      <c r="P2" t="n">
-        <v>703852.3075278761</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>490445.647027921</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.6470279208</v>
+        <v>490445.647027921</v>
       </c>
       <c r="E6" t="n">
-        <v>64530.33751539205</v>
+        <v>63555.74625567071</v>
       </c>
       <c r="F6" t="n">
-        <v>589690.3739922881</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="G6" t="n">
-        <v>589690.3739922885</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="H6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="I6" t="n">
-        <v>589690.3739922885</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="J6" t="n">
-        <v>413267.1547996957</v>
+        <v>412292.5635399742</v>
       </c>
       <c r="K6" t="n">
-        <v>589690.3739922888</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="L6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325672</v>
       </c>
       <c r="M6" t="n">
-        <v>454889.3587584514</v>
+        <v>453914.7674987298</v>
       </c>
       <c r="N6" t="n">
-        <v>589690.3739922886</v>
+        <v>588715.7827325669</v>
       </c>
       <c r="O6" t="n">
-        <v>589690.3739922885</v>
+        <v>588715.7827325671</v>
       </c>
       <c r="P6" t="n">
-        <v>589690.3739922888</v>
+        <v>588715.7827325668</v>
       </c>
     </row>
   </sheetData>
@@ -26740,43 +26740,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>262.1662084423645</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>124.3135933500644</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>98.81540326037873</v>
+        <v>63.13204062090065</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>78.46362273233848</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>62.46023111730125</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>181.1040187292096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329496</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>388.9457764405054</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>210.1646411936539</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>127.8207604271634</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.98780970275067</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>747.694791316098</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>437.808601308729</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>588.4784392551049</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303347</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>544.6350560131522</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>515.2185245587287</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>736.957405359228</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>324.1236498972918</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>714.1872090116815</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3622823.79207144</v>
+        <v>3627763.054920471</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>119.7641616298973</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.9033893520711</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>62.56386682245563</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>228.6438434528996</v>
       </c>
       <c r="F5" t="n">
-        <v>328.412423009373</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.11761032550696</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.1478855987998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.14483238681466</v>
       </c>
       <c r="T8" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.05951385154726</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784682</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>92.0623429433825</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821038</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>39.14294045584776</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771009</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>218.5843930538371</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>64.34190763938388</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,7 +3483,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>98.33170129381757</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2532.600212884817</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2313.96554585688</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2060.203760494971</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1729.1408731514</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1512.612574238668</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="C5" t="n">
-        <v>1143.650057298256</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="D5" t="n">
-        <v>785.3843586915057</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="E5" t="n">
-        <v>399.5961060932614</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1267.312047941847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>240.3587120951888</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>240.3587120951888</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.44561851279573</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.44561851279573</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.44561851279573</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.44561851279573</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>92.44561851279573</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9088977430002</v>
+        <v>409.2948950230958</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>657.237808644352</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0652204802083</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>635.1290375523014</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>485.0123981399656</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>337.0993045575725</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>190.2093570596622</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>190.2093570596622</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>190.2093570596622</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>985.713685310448</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>985.713685310448</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1035.672521570186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>780.9880333642989</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,43 +5737,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
@@ -5828,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341679</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5986,55 +5986,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1322.84934122136</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1322.84934122136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,22 +7113,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
         <v>614.6238123952637</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1288.516216317892</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1064.730801107398</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>775.602162320956</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>775.602162320956</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165104</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>127.6461250100648</v>
+        <v>409.7003683229567</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>18.35690252088946</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>40.67825230693333</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>247.0944119427296</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>33.55325026999091</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>187.7957356844441</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>99.58910868978568</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686136.2154504001</v>
+        <v>686136.2154504</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778548</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.3075278759</v>
+      </c>
+      <c r="F2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="G2" t="n">
         <v>703852.3075278758</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="G2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="H2" t="n">
+        <v>703852.3075278756</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703852.3075278758</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="L2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="I2" t="n">
-        <v>703852.3075278759</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703852.3075278761</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703852.3075278761</v>
-      </c>
       <c r="M2" t="n">
-        <v>703852.3075278759</v>
+        <v>703852.3075278758</v>
       </c>
       <c r="N2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="O2" t="n">
-        <v>703852.307527876</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="P2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278762</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26426,37 +26426,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687062</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99522.23218662359</v>
+        <v>-99522.23218662353</v>
       </c>
       <c r="C6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279209</v>
       </c>
       <c r="D6" t="n">
-        <v>490445.647027921</v>
+        <v>490445.6470279209</v>
       </c>
       <c r="E6" t="n">
-        <v>63555.74625567071</v>
+        <v>64432.87838942006</v>
       </c>
       <c r="F6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="G6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663161</v>
       </c>
       <c r="H6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663161</v>
       </c>
       <c r="I6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663168</v>
       </c>
       <c r="J6" t="n">
-        <v>412292.5635399742</v>
+        <v>413169.6956737235</v>
       </c>
       <c r="K6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663166</v>
       </c>
       <c r="L6" t="n">
-        <v>588715.7827325672</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="M6" t="n">
-        <v>453914.7674987298</v>
+        <v>454791.899632479</v>
       </c>
       <c r="N6" t="n">
-        <v>588715.7827325669</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="O6" t="n">
-        <v>588715.7827325671</v>
+        <v>589592.9148663165</v>
       </c>
       <c r="P6" t="n">
-        <v>588715.7827325668</v>
+        <v>589592.9148663168</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>262.1662084423645</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>11.51232345690039</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>82.85718120047562</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>63.13204062090065</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>153.2865266193621</v>
       </c>
       <c r="F5" t="n">
-        <v>78.46362273233848</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>7.082348863030035</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.43676775329496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>159.2708804221569</v>
       </c>
       <c r="T8" t="n">
-        <v>210.1646411936539</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>138.77246633039</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.98780970275067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29277,13 +29277,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-1.156625738918599e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29331,16 +29331,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145236</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221095</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M21" t="n">
-        <v>438.070502060531</v>
+        <v>720.1247453734233</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315249</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
